--- a/FlightReservation/Create New Order/Default.xlsx
+++ b/FlightReservation/Create New Order/Default.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>Order 95 completed</t>
+    <t>Order 100 completed</t>
   </si>
   <si>
     <t>Order_Confirmation</t>
@@ -182,9 +182,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -195,7 +193,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -518,7 +518,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -537,12 +537,12 @@
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="str">
+      <c s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(A2,"Order ", "")," completed", "")</f>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
